--- a/Reports/Installation/installation.xlsx
+++ b/Reports/Installation/installation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19907F31-7A04-4D83-B0C0-A8A31AE227EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A138D7-8E65-4493-8C8C-52A0D1B3CE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>E_SN</t>
   </si>
@@ -43,22 +43,88 @@
     <t>E_Model</t>
   </si>
   <si>
+    <t>E30</t>
+  </si>
+  <si>
     <t>E31</t>
   </si>
   <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>Ultrasonography Machine</t>
+  </si>
+  <si>
     <t>X Ray</t>
   </si>
   <si>
+    <t>Echocardiography Machine</t>
+  </si>
+  <si>
+    <t>CT Scan</t>
+  </si>
+  <si>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>PET Scan</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
     <t>0021</t>
   </si>
   <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
     <t>Radiology</t>
   </si>
   <si>
+    <t>Belal</t>
+  </si>
+  <si>
     <t>Renad</t>
   </si>
   <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Nour</t>
+  </si>
+  <si>
+    <t>Wael</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
     <t>Siemens</t>
+  </si>
+  <si>
+    <t>Physio-Control</t>
+  </si>
+  <si>
+    <t>Philips</t>
   </si>
 </sst>
 </file>
@@ -464,22 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,22 +577,152 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
-        <v>43951.416666666657</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43913.416666666657</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Installation/installation.xlsx
+++ b/Reports/Installation/installation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\Installation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clinical_Project\Reports\Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A138D7-8E65-4493-8C8C-52A0D1B3CE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>E_SN</t>
   </si>
@@ -43,94 +42,64 @@
     <t>E_Model</t>
   </si>
   <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>E32</t>
-  </si>
-  <si>
-    <t>E33</t>
-  </si>
-  <si>
-    <t>E34</t>
-  </si>
-  <si>
-    <t>E36</t>
-  </si>
-  <si>
-    <t>Ultrasonography Machine</t>
-  </si>
-  <si>
-    <t>X Ray</t>
-  </si>
-  <si>
-    <t>Echocardiography Machine</t>
-  </si>
-  <si>
-    <t>CT Scan</t>
-  </si>
-  <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>PET Scan</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0021</t>
-  </si>
-  <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>Belal</t>
-  </si>
-  <si>
-    <t>Renad</t>
-  </si>
-  <si>
-    <t>Dina</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>Wael</t>
-  </si>
-  <si>
-    <t>Ester</t>
-  </si>
-  <si>
-    <t>Siemens</t>
-  </si>
-  <si>
-    <t>Physio-Control</t>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>E00</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>Anesthesia Machine</t>
+  </si>
+  <si>
+    <t>Monitors</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Kholod</t>
+  </si>
+  <si>
+    <t>Toaa</t>
+  </si>
+  <si>
+    <t>Gaser</t>
+  </si>
+  <si>
+    <t>Fathy</t>
   </si>
   <si>
     <t>Philips</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>3A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -285,23 +254,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +289,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,21 +464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,22 +510,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>43913.416666666657</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,22 +536,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2">
         <v>43913.416666666657</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,22 +562,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>43913.416666666657</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,74 +588,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>43913.416666666657</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43913.416666666657</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43913.416666666657</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
